--- a/data/SpacingTable.xlsx
+++ b/data/SpacingTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\light\Desktop\School 2023\Study Code\StudySessionsFSRS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1002ED-3826-421A-BE0E-DC13511E0229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DA734E-5C04-4597-83C9-2F4EA393800A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31215" yWindow="2400" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Sessions" sheetId="1" r:id="rId1"/>
@@ -80,13 +80,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,41 +390,30 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
